--- a/biology/Zoologie/Conus_kevani/Conus_kevani.xlsx
+++ b/biology/Zoologie/Conus_kevani/Conus_kevani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus kevani est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La longueur maximale enregistrée de la coquille est de 17 mm[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur maximale enregistrée de la coquille est de 17 mm. 
 </t>
         </is>
       </c>
@@ -543,12 +557,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Locus typicus: "Golfe du Venezuela, près des îles Monges, Venezuela."[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locus typicus: "Golfe du Venezuela, près des îles Monges, Venezuela."
 Cette espèce est présente dans la mer des Caraïbes au large du Venezuela.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est endémique à une zone allant de Cobo la Vela, en Colombie, au Golfe du Venezuela et aux îles Monges, au Venezuela. Il n'y a pas de menaces connues et elle vit dans une zone inhabitée. Cette espèce est classée dans la catégorie "préoccupation mineure"[3].
 </t>
         </is>
       </c>
@@ -574,15 +588,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est endémique à une zone allant de Cobo la Vela, en Colombie, au Golfe du Venezuela et aux îles Monges, au Venezuela. Il n'y a pas de menaces connues et elle vit dans une zone inhabitée. Cette espèce est classée dans la catégorie "préoccupation mineure".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_kevani</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_kevani</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus kevani a été décrite pour la première fois en 1987 par le malacologiste américain Edward James Petuch[4] dans la publication intitulée « Charlottesville, Virginia: The Coastal Education and Research Foundation »[5],[6].
-Synonymes
-Conasprelloides kevani (Petuch, 1987) · non accepté
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus kevani a été décrite pour la première fois en 1987 par le malacologiste américain Edward James Petuch dans la publication intitulée « Charlottesville, Virginia: The Coastal Education and Research Foundation »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_kevani</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_kevani</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conasprelloides kevani (Petuch, 1987) · non accepté
 Conus (Dauciconus) kevani Petuch, 1987 · appellation alternative</t>
         </is>
       </c>
